--- a/server/download/registrations.xlsx
+++ b/server/download/registrations.xlsx
@@ -1,19 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="List User" sheetId="1" r:id="rId1"/>
+    <sheet name="Thanh Toàn" sheetId="1" r:id="rId1"/>
+    <sheet name="Nguyễn Thanh Toàn" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>Nguyễn Thanh Toàn 2</t>
+  </si>
+  <si>
+    <t>Trần Trung Kiên</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Châu</t>
+  </si>
+  <si>
+    <t>Châu Thị Tế</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thoại</t>
+  </si>
+  <si>
+    <t>Lê Thanh Chương</t>
+  </si>
+  <si>
+    <t>Dương Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Lê Quốc Bảo</t>
+  </si>
+  <si>
+    <t>Bùi Hữu Tuấn</t>
+  </si>
+  <si>
+    <t>Đặng Thành Nam</t>
+  </si>
+  <si>
+    <t>Thái Kim Ngân</t>
+  </si>
+  <si>
+    <t>Châu Thành Nhân</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thoại B</t>
+  </si>
+  <si>
+    <t>Lê Thanh Khương</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Trí</t>
+  </si>
+  <si>
+    <t>Cao Quốc Ân</t>
+  </si>
+  <si>
+    <t>MSSV</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +117,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,67 +449,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.8984375" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>subjectName</v>
-      </c>
-      <c r="B1" t="str">
-        <v>subjectCode</v>
-      </c>
-      <c r="C1" t="str">
-        <v>projectTypeName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>projectName</v>
-      </c>
-      <c r="E1" t="str">
-        <v>projectCode</v>
-      </c>
-      <c r="F1" t="str">
-        <v>teacherName</v>
-      </c>
-      <c r="G1" t="str">
-        <v>leaderCode</v>
-      </c>
-      <c r="H1" t="str">
-        <v>leaderName</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Đồ án 1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>DA1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>BTL 1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Tìm hiểu Nosql và viết ứng dụng minh họa</v>
-      </c>
-      <c r="E2" t="str">
-        <v>DA1.6</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Ngô Duy Lân</v>
-      </c>
-      <c r="G2" t="str">
-        <v>51403330</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Nguyễn Thanh Toàn</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>51403332</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>51403333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>51403334</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>51403335</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>51403336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>51403337</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>51403338</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>51403339</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>51403320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>51403321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>51403322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>51403323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>51403324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>51403325</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>51403326</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>51403327</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/download/registrations.xlsx
+++ b/server/download/registrations.xlsx
@@ -1,86 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
-  </bookViews>
   <sheets>
-    <sheet name="Thanh Toàn" sheetId="1" r:id="rId1"/>
-    <sheet name="Nguyễn Thanh Toàn" sheetId="2" r:id="rId2"/>
+    <sheet name="Registrations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t>Nguyễn Thanh Toàn 2</t>
-  </si>
-  <si>
-    <t>Trần Trung Kiên</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Châu</t>
-  </si>
-  <si>
-    <t>Châu Thị Tế</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Thoại</t>
-  </si>
-  <si>
-    <t>Lê Thanh Chương</t>
-  </si>
-  <si>
-    <t>Dương Thái Nguyên</t>
-  </si>
-  <si>
-    <t>Lê Quốc Bảo</t>
-  </si>
-  <si>
-    <t>Bùi Hữu Tuấn</t>
-  </si>
-  <si>
-    <t>Đặng Thành Nam</t>
-  </si>
-  <si>
-    <t>Thái Kim Ngân</t>
-  </si>
-  <si>
-    <t>Châu Thành Nhân</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Thoại B</t>
-  </si>
-  <si>
-    <t>Lê Thanh Khương</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Trí</t>
-  </si>
-  <si>
-    <t>Cao Quốc Ân</t>
-  </si>
-  <si>
-    <t>MSSV</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,14 +50,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -449,184 +374,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.8984375" customWidth="1"/>
-    <col min="2" max="2" width="26.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>subjectName</v>
+      </c>
+      <c r="B1" t="str">
+        <v>subjectCode</v>
+      </c>
+      <c r="C1" t="str">
+        <v>projectTypeName</v>
+      </c>
+      <c r="D1" t="str">
+        <v>projectName</v>
+      </c>
+      <c r="E1" t="str">
+        <v>projectCode</v>
+      </c>
+      <c r="F1" t="str">
+        <v>teacherName</v>
+      </c>
+      <c r="G1" t="str">
+        <v>leaderCode</v>
+      </c>
+      <c r="H1" t="str">
+        <v>leaderName</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>51403332</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Đồ án 1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>DA1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>BTL 2</v>
+      </c>
+      <c r="D2" t="str">
+        <v>PUBG (Game) Finish Placement Prediction</v>
+      </c>
+      <c r="E2" t="str">
+        <v>DA1.10</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Trần Thanh Phước</v>
+      </c>
+      <c r="G2" t="str">
+        <v>51403331</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Trần Thanh Tú</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>51403333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>51403334</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>51403335</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>51403336</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>51403337</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>51403338</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>51403339</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Đồ án 1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>DA1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>BTL 2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>PUBG (Game) Finish Placement Prediction</v>
+      </c>
+      <c r="E3" t="str">
+        <v>DA1.10</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Trần Thanh Phước</v>
+      </c>
+      <c r="G3" t="str">
+        <v>51403330</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Nguyễn Thanh Toàn</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.8984375" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>51403320</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>51403321</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>51403322</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>51403323</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>51403324</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>51403325</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>51403326</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>51403327</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/server/download/registrations.xlsx
+++ b/server/download/registrations.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,6 +405,12 @@
       <c r="H1" t="str">
         <v>leaderName</v>
       </c>
+      <c r="I1" t="str">
+        <v>memberCodes</v>
+      </c>
+      <c r="J1" t="str">
+        <v>memberNames</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -414,53 +420,33 @@
         <v>DA1</v>
       </c>
       <c r="C2" t="str">
-        <v>BTL 2</v>
+        <v>BTL 1</v>
       </c>
       <c r="D2" t="str">
-        <v>PUBG (Game) Finish Placement Prediction</v>
+        <v>Tìm hiểu Nosql và viết ứng dụng minh họa</v>
       </c>
       <c r="E2" t="str">
-        <v>DA1.10</v>
+        <v>DA1.6</v>
       </c>
       <c r="F2" t="str">
-        <v>Trần Thanh Phước</v>
+        <v>Ngô Duy Lân</v>
       </c>
       <c r="G2" t="str">
-        <v>51403331</v>
+        <v>51403330</v>
       </c>
       <c r="H2" t="str">
-        <v>Trần Thanh Tú</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Đồ án 1</v>
-      </c>
-      <c r="B3" t="str">
-        <v>DA1</v>
-      </c>
-      <c r="C3" t="str">
-        <v>BTL 2</v>
-      </c>
-      <c r="D3" t="str">
-        <v>PUBG (Game) Finish Placement Prediction</v>
-      </c>
-      <c r="E3" t="str">
-        <v>DA1.10</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Trần Thanh Phước</v>
-      </c>
-      <c r="G3" t="str">
-        <v>51403330</v>
-      </c>
-      <c r="H3" t="str">
         <v>Nguyễn Thanh Toàn</v>
+      </c>
+      <c r="I2" t="str">
+        <v>51403330,51403331</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Nguyễn Thanh Toàn,Trần Thanh Tú</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
   </ignoredErrors>
 </worksheet>
 </file>